--- a/target/test-classes/SINIF.xlsx
+++ b/target/test-classes/SINIF.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Ogrenci</t>
   </si>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
 </sst>
 </file>
@@ -457,9 +475,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" style="2" width="9.140625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="false"/>
-    <col min="7" max="16384" style="2" width="9.140625" collapsed="false"/>
+    <col min="1" max="5" style="2" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,6 +528,9 @@
       <c r="D3" s="2">
         <v>52</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -524,6 +545,9 @@
       <c r="D4" s="2">
         <v>53</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,6 +563,9 @@
       <c r="D5" s="2">
         <v>47</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -554,6 +581,9 @@
       <c r="D6" s="2">
         <v>56</v>
       </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,6 +599,9 @@
       <c r="D7" s="2">
         <v>49</v>
       </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,6 +616,9 @@
       </c>
       <c r="D8" s="2">
         <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
     </row>
